--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-01/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-01/curvature_data.xlsx
@@ -379,240 +379,240 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54194.527054</v>
+        <v>54104.131049</v>
       </c>
       <c r="B2">
-        <v>-0.0001794887</v>
+        <v>-2.6941024467e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0004503885</v>
+        <v>-2.4279518965e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0007542026</v>
+        <v>-1.6392650307e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54137.995051</v>
+        <v>54116.06305</v>
       </c>
       <c r="B3">
-        <v>6.6930546373e-05</v>
+        <v>4.1526392218e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00020196565856</v>
+        <v>-7.0240302983e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00029457175636</v>
+        <v>-0.00011090018937</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54219.527055</v>
+        <v>54126.59505</v>
       </c>
       <c r="B4">
-        <v>7.182422297900001e-05</v>
+        <v>7.2999776508e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00040230443271</v>
+        <v>-0.00013189856818</v>
       </c>
       <c r="D4">
-        <v>-0.0005578451404</v>
+        <v>-0.00020121256458</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54159.931052</v>
+        <v>54137.995051</v>
       </c>
       <c r="B5">
-        <v>-0.0001579174</v>
+        <v>6.6930546373e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0002607569</v>
+        <v>-0.00020196565856</v>
       </c>
       <c r="D5">
-        <v>-0.0004923471</v>
+        <v>-0.00029457175636</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>54241.195056</v>
+        <v>54149.995051</v>
       </c>
       <c r="B6">
-        <v>4.4784586995e-05</v>
+        <v>-5.4608288134e-05</v>
       </c>
       <c r="C6">
-        <v>-0.00027746966129</v>
+        <v>-0.00022790344806</v>
       </c>
       <c r="D6">
-        <v>-0.00037456862567</v>
+        <v>-0.00038772846207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>54182.195053</v>
+        <v>54159.931052</v>
       </c>
       <c r="B7">
-        <v>6.2116685802e-05</v>
+        <v>-0.0001579174</v>
       </c>
       <c r="C7">
-        <v>-0.00047683264746</v>
+        <v>-0.0002607569</v>
       </c>
       <c r="D7">
-        <v>-0.0006420127823</v>
+        <v>-0.0004923471</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>54104.131049</v>
+        <v>54171.263053</v>
       </c>
       <c r="B8">
-        <v>-2.6941024467e-05</v>
+        <v>-0.0001794945</v>
       </c>
       <c r="C8">
-        <v>-2.4279518965e-05</v>
+        <v>-0.0003161176</v>
       </c>
       <c r="D8">
-        <v>-1.6392650307e-05</v>
+        <v>-0.0005876424</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54230.663055</v>
+        <v>54182.195053</v>
       </c>
       <c r="B9">
-        <v>-0.000103931</v>
+        <v>6.2116685802e-05</v>
       </c>
       <c r="C9">
-        <v>-0.000280547</v>
+        <v>-0.00047683264746</v>
       </c>
       <c r="D9">
-        <v>-0.0004715951</v>
+        <v>-0.0006420127823</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>54171.263053</v>
+        <v>54194.527054</v>
       </c>
       <c r="B10">
-        <v>-0.0001794945</v>
+        <v>-0.0001794887</v>
       </c>
       <c r="C10">
-        <v>-0.0003161176</v>
+        <v>-0.0004503885</v>
       </c>
       <c r="D10">
-        <v>-0.0005876424</v>
+        <v>-0.0007542026</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>54126.59505</v>
+        <v>54205.595054</v>
       </c>
       <c r="B11">
-        <v>7.2999776508e-05</v>
+        <v>-0.000110541</v>
       </c>
       <c r="C11">
-        <v>-0.00013189856818</v>
+        <v>-0.0003869432</v>
       </c>
       <c r="D11">
-        <v>-0.00020121256458</v>
+        <v>-0.0006641657</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>54284.395058</v>
+        <v>54219.527055</v>
       </c>
       <c r="B12">
-        <v>3.5853465357e-05</v>
+        <v>7.182422297900001e-05</v>
       </c>
       <c r="C12">
-        <v>8.433258282599999e-06</v>
+        <v>-0.00040230443271</v>
       </c>
       <c r="D12">
-        <v>-4.2829193987e-05</v>
+        <v>-0.0005578451404</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>54263.395057</v>
+        <v>54230.663055</v>
       </c>
       <c r="B13">
-        <v>3.9144070159e-05</v>
+        <v>-0.000103931</v>
       </c>
       <c r="C13">
-        <v>-0.00013299351645</v>
+        <v>-0.000280547</v>
       </c>
       <c r="D13">
-        <v>-0.0002000979366</v>
+        <v>-0.0004715951</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>54149.995051</v>
+        <v>54241.195056</v>
       </c>
       <c r="B14">
-        <v>-5.4608288134e-05</v>
+        <v>4.4784586995e-05</v>
       </c>
       <c r="C14">
-        <v>-0.00022790344806</v>
+        <v>-0.00027746966129</v>
       </c>
       <c r="D14">
-        <v>-0.00038772846207</v>
+        <v>-0.00037456862567</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>54272.927057</v>
+        <v>54252.195056</v>
       </c>
       <c r="B15">
-        <v>7.316329230500001e-05</v>
+        <v>3.0195706375e-06</v>
       </c>
       <c r="C15">
-        <v>-5.285734737e-05</v>
+        <v>-0.00017261305006</v>
       </c>
       <c r="D15">
-        <v>-0.00011878279723</v>
+        <v>-0.00028426199195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>54252.195056</v>
+        <v>54263.395057</v>
       </c>
       <c r="B16">
-        <v>3.0195706375e-06</v>
+        <v>3.9144070159e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00017261305006</v>
+        <v>-0.00013299351645</v>
       </c>
       <c r="D16">
-        <v>-0.00028426199195</v>
+        <v>-0.0002000979366</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>54205.595054</v>
+        <v>54272.927057</v>
       </c>
       <c r="B17">
-        <v>-0.000110541</v>
+        <v>7.316329230500001e-05</v>
       </c>
       <c r="C17">
-        <v>-0.0003869432</v>
+        <v>-5.285734737e-05</v>
       </c>
       <c r="D17">
-        <v>-0.0006641657</v>
+        <v>-0.00011878279723</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>54116.06305</v>
+        <v>54284.395058</v>
       </c>
       <c r="B18">
-        <v>4.1526392218e-05</v>
+        <v>3.5853465357e-05</v>
       </c>
       <c r="C18">
-        <v>-7.0240302983e-05</v>
+        <v>8.433258282599999e-06</v>
       </c>
       <c r="D18">
-        <v>-0.00011090018937</v>
+        <v>-4.2829193987e-05</v>
       </c>
     </row>
   </sheetData>
